--- a/Stock/src/main/resources/layout/Script.xlsx
+++ b/Stock/src/main/resources/layout/Script.xlsx
@@ -5,23 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\WebApps\alpha-inc-f5\Stock\src\main\resources\layout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18780" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18780" windowHeight="8325" tabRatio="804" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Pais" sheetId="5" r:id="rId1"/>
     <sheet name="Estados" sheetId="7" r:id="rId2"/>
     <sheet name="Municipios" sheetId="6" r:id="rId3"/>
+    <sheet name="CofiaFuenteFinanciamiento" sheetId="8" r:id="rId4"/>
+    <sheet name="CofiaPartidaGenerica" sheetId="9" r:id="rId5"/>
+    <sheet name="CofiaPrograma" sheetId="10" r:id="rId6"/>
+    <sheet name="cofiaPy" sheetId="11" r:id="rId7"/>
+    <sheet name="EstatusRequisicion" sheetId="12" r:id="rId8"/>
+    <sheet name="Clave armonizada" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="2659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="2815">
   <si>
     <t>China</t>
   </si>
@@ -7998,13 +8004,481 @@
   </si>
   <si>
     <t>Estado_Zacatecas.svg</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Financiamiento 1</t>
+  </si>
+  <si>
+    <t>Financiamiento 2</t>
+  </si>
+  <si>
+    <t>Financiamiento 3</t>
+  </si>
+  <si>
+    <t>Financiamiento 4</t>
+  </si>
+  <si>
+    <t>Financiamiento 5</t>
+  </si>
+  <si>
+    <t>Financiamiento 6</t>
+  </si>
+  <si>
+    <t>Financiamiento 7</t>
+  </si>
+  <si>
+    <t>Financiamiento 8</t>
+  </si>
+  <si>
+    <t>Financiamiento 9</t>
+  </si>
+  <si>
+    <t>Financiamiento 10</t>
+  </si>
+  <si>
+    <t>Financiamiento 11</t>
+  </si>
+  <si>
+    <t>Financiamiento 12</t>
+  </si>
+  <si>
+    <t>Financiamiento 13</t>
+  </si>
+  <si>
+    <t>Financiamiento 14</t>
+  </si>
+  <si>
+    <t>Financiamiento 15</t>
+  </si>
+  <si>
+    <t>Financiamiento 16</t>
+  </si>
+  <si>
+    <t>Financiamiento 17</t>
+  </si>
+  <si>
+    <t>Financiamiento 18</t>
+  </si>
+  <si>
+    <t>Financiamiento 19</t>
+  </si>
+  <si>
+    <t>Partida generica 1</t>
+  </si>
+  <si>
+    <t>Partida generica 2</t>
+  </si>
+  <si>
+    <t>Partida generica 3</t>
+  </si>
+  <si>
+    <t>Partida generica 4</t>
+  </si>
+  <si>
+    <t>Partida generica 5</t>
+  </si>
+  <si>
+    <t>Partida generica 6</t>
+  </si>
+  <si>
+    <t>Partida generica 7</t>
+  </si>
+  <si>
+    <t>Partida generica 8</t>
+  </si>
+  <si>
+    <t>Partida generica 9</t>
+  </si>
+  <si>
+    <t>Partida generica 10</t>
+  </si>
+  <si>
+    <t>Partida generica 11</t>
+  </si>
+  <si>
+    <t>Partida generica 12</t>
+  </si>
+  <si>
+    <t>Partida generica 13</t>
+  </si>
+  <si>
+    <t>Programa 1</t>
+  </si>
+  <si>
+    <t>Programa 2</t>
+  </si>
+  <si>
+    <t>Programa 3</t>
+  </si>
+  <si>
+    <t>Programa 4</t>
+  </si>
+  <si>
+    <t>Programa 5</t>
+  </si>
+  <si>
+    <t>Programa 6</t>
+  </si>
+  <si>
+    <t>Programa 7</t>
+  </si>
+  <si>
+    <t>Programa 8</t>
+  </si>
+  <si>
+    <t>Programa 9</t>
+  </si>
+  <si>
+    <t>Programa 10</t>
+  </si>
+  <si>
+    <t>Programa 11</t>
+  </si>
+  <si>
+    <t>Programa 12</t>
+  </si>
+  <si>
+    <t>Programa 13</t>
+  </si>
+  <si>
+    <t>Pay  1</t>
+  </si>
+  <si>
+    <t>Pay  3</t>
+  </si>
+  <si>
+    <t>Pay  2</t>
+  </si>
+  <si>
+    <t>Pay  4</t>
+  </si>
+  <si>
+    <t>Pay  5</t>
+  </si>
+  <si>
+    <t>Pay  6</t>
+  </si>
+  <si>
+    <t>Pay  7</t>
+  </si>
+  <si>
+    <t>Pay  8</t>
+  </si>
+  <si>
+    <t>Pay  9</t>
+  </si>
+  <si>
+    <t>Pay  10</t>
+  </si>
+  <si>
+    <t>Pay  11</t>
+  </si>
+  <si>
+    <t>Pay  12</t>
+  </si>
+  <si>
+    <t>Pay  13</t>
+  </si>
+  <si>
+    <t>RQN</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Nueva</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>padding:5px;background:#007DC1;background:-moz-linear-gradient(top, #007DC1 0%, #0061A7 100%);background:-webkit-gradient(linear, left top, left bottom, color-stop(0%,#007DC1), color-stop(100%,#0061A7));background:-webkit-linear-gradient(top, #007DC1 0%,#0061A7 100%);background:-o-linear-gradient(top, #007DC1 0%,#0061A7 100%);background:-ms-linear-gradient(top, #007DC1 0%,#0061A7 100%);background:linear-gradient(to bottom, #007DC1 0%,#0061A7 100%);filter:progid:DXImageTransform.Microsoft.gradient( startColorstr='#007DC1',  endColorstr='#0061A7', GradientType=0 );border-width:2px;border-style:solid;border-color:#124D77;border-radius:100px;box-shadow:0px 1px 0px 0px #54A3F7;text-shadow:0px 1px 0px #154682;</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>OCN</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Requisicion nueva</t>
+  </si>
+  <si>
+    <t>Cotizacion Nueva</t>
+  </si>
+  <si>
+    <t>Orden de compra nueva</t>
+  </si>
+  <si>
+    <t>RQC</t>
+  </si>
+  <si>
+    <t>Requisicion cancelada</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>padding:5px;background:#D0451B;background:-moz-linear-gradient(top, #D0451B 0%, #BC3315 100%);background:-webkit-gradient(linear, left top, left bottom, color-stop(0%,#D0451B), color-stop(100%,#BC3315));background:-webkit-linear-gradient(top, #D0451B 0%,#BC3315 100%);background:-o-linear-gradient(top, #D0451B 0%,#BC3315 100%);background:-ms-linear-gradient(top, #D0451B 0%,#BC3315 100%);background:linear-gradient(to bottom, #D0451B 0%,#BC3315 100%);filter:progid:DXImageTransform.Microsoft.gradient( startColorstr='#D0451B',  endColorstr='#BC3315', GradientType=0 );border-width:2px;border-style:solid;border-color:#942911;border-radius:100px;box-shadow:0px 1px 0px 0px #CF866C;text-shadow:0px 1px 0px #FFFFFF;</t>
+  </si>
+  <si>
+    <t>COC</t>
+  </si>
+  <si>
+    <t>Cotizacion cancelada</t>
+  </si>
+  <si>
+    <t>OCC</t>
+  </si>
+  <si>
+    <t>Orden de compra cancelada</t>
+  </si>
+  <si>
+    <t>RQP</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>padding:5px;background:#FFEC64;background:-moz-linear-gradient(top, #FFEC64 0%, #FFAB23 100%);background:-webkit-gradient(linear, left top, left bottom, color-stop(0%,#FFEC64), color-stop(100%,#FFAB23));background:-webkit-linear-gradient(top, #FFEC64 0%,#FFAB23 100%);background:-o-linear-gradient(top, #FFEC64 0%,#FFAB23 100%);background:-ms-linear-gradient(top, #FFEC64 0%,#FFAB23 100%);background:linear-gradient(to bottom, #FFEC64 0%,#FFAB23 100%);filter:progid:DXImageTransform.Microsoft.gradient( startColorstr='#FFEC64',  endColorstr='#FFAB23', GradientType=0 );border-width:2px;border-style:solid;border-color:#FFAA22;border-radius:100px;box-shadow:0px 1px 0px 0px #FFF6AF;text-shadow:0px 1px 0px #FFEE66;</t>
+  </si>
+  <si>
+    <t>Rerquisicion pediente</t>
+  </si>
+  <si>
+    <t>RQT</t>
+  </si>
+  <si>
+    <t>Terminada</t>
+  </si>
+  <si>
+    <t>Requisicion terminada</t>
+  </si>
+  <si>
+    <t>padding:5px;background:#77B55A;background:-moz-linear-gradient(top, #77B55A 0%, #72B352 100%);background:-webkit-gradient(linear, left top, left bottom, color-stop(0%,#77B55A), color-stop(100%,#72B352));background:-webkit-linear-gradient(top, #77B55A 0%,#72B352 100%);background:-o-linear-gradient(top, #77B55A 0%,#72B352 100%);background:-ms-linear-gradient(top, #77B55A 0%,#72B352 100%);background:linear-gradient(to bottom, #77B55A 0%,#72B352 100%);filter:progid:DXImageTransform.Microsoft.gradient( startColorstr='#77B55A',  endColorstr='#72B352', GradientType=0 );border-width:2px;border-style:solid;border-color:#4B8F29;border-radius:100px;box-shadow:0px 10px 14px -7px #3E7327;text-shadow:0px 1px 0px #5B8A3C;</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>Enviada</t>
+  </si>
+  <si>
+    <t>Cotizacion enviada</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>Cotizacion aceptada</t>
+  </si>
+  <si>
+    <t>Aceptada</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>Orden de compra terminada</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Sub grupo</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Muebles</t>
+  </si>
+  <si>
+    <t>Material de limpieza</t>
+  </si>
+  <si>
+    <t>Materiales para el registro e identificación de bienes y personas</t>
+  </si>
+  <si>
+    <t>Productos alimenticios para personas</t>
+  </si>
+  <si>
+    <t>Productos alimenticios para animales</t>
+  </si>
+  <si>
+    <t>Productos alimenticios, agropecuarios y forestales adquiridos como materia prima</t>
+  </si>
+  <si>
+    <t>Insumos textiles adquiridos como materia prima</t>
+  </si>
+  <si>
+    <t>Otros productos adquiridos como materia prima</t>
+  </si>
+  <si>
+    <t>Cemento y productos de concreto</t>
+  </si>
+  <si>
+    <t>Cal, yeso y productos de yeso</t>
+  </si>
+  <si>
+    <t>Madera y productos de madera</t>
+  </si>
+  <si>
+    <t>Vidrio y productos de vidrio</t>
+  </si>
+  <si>
+    <t>Materiales complementarios</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros de laboratorio</t>
+  </si>
+  <si>
+    <t>Combustibles, lubricantes y aditivos</t>
+  </si>
+  <si>
+    <t>Vestuario y uniformes</t>
+  </si>
+  <si>
+    <t>Productos textiles</t>
+  </si>
+  <si>
+    <t>Blancos y otros productos textiles, excepto prendas de vestir</t>
+  </si>
+  <si>
+    <t>Sustancias y materiales explosivos</t>
+  </si>
+  <si>
+    <t>Materiales de seguridad publica</t>
+  </si>
+  <si>
+    <t>Herramientas menores</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de edificios</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de transporte</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de defensa y seguridad</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de maquinaria y otros equipos</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores otros bienes muebles</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo e instrumental médico y de laboratorio</t>
+  </si>
+  <si>
+    <t>Clasificación ID</t>
+  </si>
+  <si>
+    <t>Clasificación Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Materiales, útiles y equipos menores de oficina</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de impresión y reproducción</t>
+  </si>
+  <si>
+    <t>Material estadístico y geográfico</t>
+  </si>
+  <si>
+    <t>Materiales, útiles y equipos menores de tecnología de la información y comunicaciones</t>
+  </si>
+  <si>
+    <t>Material impreso e información digital</t>
+  </si>
+  <si>
+    <t>Materiales y útiles de enseñanza</t>
+  </si>
+  <si>
+    <t>Utensilios para el servicio de alimentación</t>
+  </si>
+  <si>
+    <t>Productos de papel, cartón e impresos adquiridos como materia prima</t>
+  </si>
+  <si>
+    <t>Combustibles, lubricantes, aditivos, carbón y sus derivados adquiridos como materia prima</t>
+  </si>
+  <si>
+    <t>Productos químicos, farmacéuticos y de laboratorio adquiridos como materia prima</t>
+  </si>
+  <si>
+    <t>Productos metálicos y a base de minerales no metálicos adquiridos como materia prima</t>
+  </si>
+  <si>
+    <t>Productos de cuero, piel, plástico y hule adquiridos como materia prima</t>
+  </si>
+  <si>
+    <t>Mercancías adquiridas para su comercialización</t>
+  </si>
+  <si>
+    <t>Productos minerales no metálicos</t>
+  </si>
+  <si>
+    <t>Material eléctrico y electrónico</t>
+  </si>
+  <si>
+    <t>Artículos metálicos para la construcción</t>
+  </si>
+  <si>
+    <t>Otros materiales y artículos de construcción y reparación</t>
+  </si>
+  <si>
+    <t>Productos químicos básicos</t>
+  </si>
+  <si>
+    <t>Fertilizantes, pesticidas y otros agroquímicos</t>
+  </si>
+  <si>
+    <t>Medicinas y productos farmacéuticos</t>
+  </si>
+  <si>
+    <t>Materiales, accesorios y suministros médicos</t>
+  </si>
+  <si>
+    <t>Fibras sintéticas, hules, plásticos y derivados</t>
+  </si>
+  <si>
+    <t>Otros productos químicos</t>
+  </si>
+  <si>
+    <t>Carbón y sus derivados</t>
+  </si>
+  <si>
+    <t>Prendas de seguridad y protección personal</t>
+  </si>
+  <si>
+    <t>Artículos deportivos</t>
+  </si>
+  <si>
+    <t>Prendas de protección para seguridad pública y nacional</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de mobiliario y equipo de administración, educacional y recreativo</t>
+  </si>
+  <si>
+    <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8018,13 +8492,74 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8039,9 +8574,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9648,7 +10192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -37183,4 +37727,1880 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>211</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>212</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>213</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>214</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>215</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>216</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>217</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>218</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>221</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>222</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>223</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>231</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>232</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>233</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>234</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>235</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4">
+        <v>236</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>237</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>238</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <v>239</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>241</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>242</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>243</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>244</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>245</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5">
+        <v>246</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5">
+        <v>247</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5">
+        <v>248</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5">
+        <v>9</v>
+      </c>
+      <c r="F30" s="5">
+        <v>249</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>251</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>252</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6">
+        <v>253</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>5</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6">
+        <v>254</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6">
+        <v>255</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6">
+        <v>6</v>
+      </c>
+      <c r="F36" s="6">
+        <v>256</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5</v>
+      </c>
+      <c r="E37" s="6">
+        <v>9</v>
+      </c>
+      <c r="F37" s="6">
+        <v>259</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>261</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7">
+        <v>2</v>
+      </c>
+      <c r="F39" s="7">
+        <v>262</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="8">
+        <v>7</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>271</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="8">
+        <v>7</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8">
+        <v>272</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>7</v>
+      </c>
+      <c r="E42" s="8">
+        <v>3</v>
+      </c>
+      <c r="F42" s="8">
+        <v>273</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" s="8">
+        <v>7</v>
+      </c>
+      <c r="E43" s="8">
+        <v>4</v>
+      </c>
+      <c r="F43" s="8">
+        <v>274</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>7</v>
+      </c>
+      <c r="E44" s="8">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8">
+        <v>275</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" s="9">
+        <v>8</v>
+      </c>
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9">
+        <v>281</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="9">
+        <v>8</v>
+      </c>
+      <c r="E46" s="9">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9">
+        <v>282</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="9">
+        <v>8</v>
+      </c>
+      <c r="E47" s="9">
+        <v>3</v>
+      </c>
+      <c r="F47" s="9">
+        <v>283</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10">
+        <v>9</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10">
+        <v>291</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="10">
+        <v>9</v>
+      </c>
+      <c r="E49" s="10">
+        <v>3</v>
+      </c>
+      <c r="F49" s="10">
+        <v>292</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" s="10">
+        <v>9</v>
+      </c>
+      <c r="E50" s="10">
+        <v>4</v>
+      </c>
+      <c r="F50" s="10">
+        <v>293</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10">
+        <v>9</v>
+      </c>
+      <c r="E51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10">
+        <v>294</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="10">
+        <v>9</v>
+      </c>
+      <c r="E52" s="10">
+        <v>6</v>
+      </c>
+      <c r="F52" s="10">
+        <v>295</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" s="10">
+        <v>9</v>
+      </c>
+      <c r="E53" s="10">
+        <v>7</v>
+      </c>
+      <c r="F53" s="10">
+        <v>296</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="10">
+        <v>9</v>
+      </c>
+      <c r="E54" s="10">
+        <v>8</v>
+      </c>
+      <c r="F54" s="10">
+        <v>297</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10">
+        <v>9</v>
+      </c>
+      <c r="E55" s="10">
+        <v>9</v>
+      </c>
+      <c r="F55" s="10">
+        <v>298</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="10">
+        <v>9</v>
+      </c>
+      <c r="E56" s="10">
+        <v>10</v>
+      </c>
+      <c r="F56" s="10">
+        <v>299</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Stock/src/main/resources/layout/Script.xlsx
+++ b/Stock/src/main/resources/layout/Script.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18780" windowHeight="8325" tabRatio="804" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18780" windowHeight="8325" tabRatio="804" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pais" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="2815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="2824">
   <si>
     <t>China</t>
   </si>
@@ -8472,6 +8472,33 @@
   </si>
   <si>
     <t>Refacciones y accesorios menores de equipo de cómputo y tecnologías de la información</t>
+  </si>
+  <si>
+    <t>color font</t>
+  </si>
+  <si>
+    <t>color: white; font-size: 80%;</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>Kardex Nuevo</t>
+  </si>
+  <si>
+    <t>KXN</t>
+  </si>
+  <si>
+    <t>KXT</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>Kardex Terminado</t>
+  </si>
+  <si>
+    <t>color: black; font-size: 80%;</t>
   </si>
 </sst>
 </file>
@@ -38107,19 +38134,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2719</v>
       </c>
@@ -38132,8 +38158,11 @@
       <c r="D1" t="s">
         <v>2721</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2718</v>
       </c>
@@ -38146,8 +38175,11 @@
       <c r="D2" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2723</v>
       </c>
@@ -38160,8 +38192,11 @@
       <c r="D3" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2724</v>
       </c>
@@ -38174,117 +38209,178 @@
       <c r="D4" t="s">
         <v>2722</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2729</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2731</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2733</v>
       </c>
       <c r="B6" t="s">
         <v>2731</v>
       </c>
       <c r="C6" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
       <c r="D6" t="s">
         <v>2732</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="B7" t="s">
         <v>2731</v>
       </c>
       <c r="C7" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="D7" t="s">
         <v>2732</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2737</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>2738</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>2740</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>2739</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2741</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>2742</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>2743</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>2744</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2745</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>2746</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>2747</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>2739</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>2748</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>2750</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>2749</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2751</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2752</v>
       </c>
       <c r="D12" t="s">
         <v>2744</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2744</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2816</v>
       </c>
     </row>
   </sheetData>
@@ -38296,8 +38392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
